--- a/excel/BG-TP-S5/BG-TP-S5.xlsx
+++ b/excel/BG-TP-S5/BG-TP-S5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\Downloads\backendBulletin-main\backendBulletin-main\excel\BG-TP-S5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\Desktop\bulletin-espi\backend\excel\BG-TP-S5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983B37A7-30D1-4E2F-A6C5-50E14E68A812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404DCFD1-1CA2-42E6-BD49-3655F0AA2FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
